--- a/biology/Médecine/Mur_de_la_peste/Mur_de_la_peste.xlsx
+++ b/biology/Médecine/Mur_de_la_peste/Mur_de_la_peste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mur de la Peste était un rempart édifié dans les monts de Vaucluse afin de protéger le Comtat Venaissin de la peste qui frappa Marseille et une partie de la Provence en 1720-1722.
@@ -516,7 +528,9 @@
           <t>Historique des pestes en Provence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Moyen Âge les foyers de peste endémique se situaient aux « échelles » du Levant. Du XIVe siècle, avec la peste noire, au XVIIIe siècle, avec la Grande Peste, cette pandémie tua entre 60 et 90 % des malades. Il y eut environ une grande épidémie de peste par siècle.
 Nombre d’années pestiférées en Provence du XIVe au XVIIe siècle
@@ -553,13 +567,15 @@
           <t>La Grande Peste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En mai 1720, la « Grande Peste » fut apportée, à Marseille, par le Grand Saint Antoine, dont l’affréteur, l’échevin Jean-Baptiste Estelle, malgré un décès suspect signalé par le capitaine Jean-Baptiste Chataud, voulut absolument débloquer sa cargaison pour commercialiser ses soieries à la foire de Beaucaire qui débutait le 20 juillet. La peste ne fut officiellement déclarée que 67 jours après l’arrivée du navire.
 En mars 1721, pour limiter la propagation de la maladie que les restrictions de circulation ne parviennent pas à contenir, le royaume de France, les territoires pontificaux d'Avignon et du Comtat Venaissin décidèrent de se protéger par une ligne sanitaire matérialisée par un mur de pierres sèches entre la Durance et le mont Ventoux, et gardé jour et nuit par les troupes françaises et papales empêchant tout passage. Les habitants furent ainsi réquisitionnés pour son édification, le mur devait empêcher toute relation entre le Comtat Venaissin et le Dauphiné encore épargné.
 Malgré les barrières naturelles que représentaient la Durance, le Rhône, le Verdon, le Var, l’Eygues et l'Orb, auxquelles s’ajouta le « mur de la Peste », on a pu calculer que l’épidémie se déplaçait de 45 kilomètres par mois, en zone peuplée, avec des différences allant de 35 à 50 km/mois[réf. souhaitée]. Mais si le fléau atteignit les Préalpes et le Gévaudan, il ne dépassa pas Orange dans la vallée du Rhône et il s’arrêta aux portes de Saint-Genest-de-Beauzon, près de Largentière.
-La peste atteignit Apt, le 25 septembre[1], et Carpentras le 24 octobre 1720, où l’on exposa les reliques de saint Siffren et le Saint-Clou pour éloigner le fléau. Un an plus tard, à Méthamis, le 21 septembre 1721, le bureau de santé ordonnait :
-« Que ceux des habitants qui voudraient aller travailler à la vendange hors du terroir ne pouvaient aller qu'à Carpentras ou autres lieux plus proches ; qu’à leur retour ils apporteraient une attestation des personnes chez qui ils auraient travaillé et le nombre de jours qu’ils auraient travaillé chez chacun, au défaut de laquelle attestation ils ne seraient plus reçus dans le lieu[2]. »
+La peste atteignit Apt, le 25 septembre, et Carpentras le 24 octobre 1720, où l’on exposa les reliques de saint Siffren et le Saint-Clou pour éloigner le fléau. Un an plus tard, à Méthamis, le 21 septembre 1721, le bureau de santé ordonnait :
+« Que ceux des habitants qui voudraient aller travailler à la vendange hors du terroir ne pouvaient aller qu'à Carpentras ou autres lieux plus proches ; qu’à leur retour ils apporteraient une attestation des personnes chez qui ils auraient travaillé et le nombre de jours qu’ils auraient travaillé chez chacun, au défaut de laquelle attestation ils ne seraient plus reçus dans le lieu. »
 D’une façon générale, en ce temps de vendanges, les raisins ne pouvaient attendre et de nombreux consuls ou bureaux de santé remirent aux vendangeurs de leur commune une « carte marquée aux armes de la ville » leur servant de laissez-passer.
 Le vin trouva une place prépondérante parmi les désinfectants ou les médications. Durant toute la période 1720-1721, on conseilla des vins légers bus avec de l’eau pour ne pas enflammer le sang. Les vins blancs étaient recommandés. Pour désinfecter les lieux touchés par la peste on se servit du vinaigre des quatre voleurs.
 Comme curatif, l’apothicaire de Ménerbes se chargea de fournir en thériaque une partie des communes de la vallée du Calavon. Le 12 août 1722, la peste finie, les consuls de Goult qui en avaient acheté pour 340 livres lui renvoyèrent leur stock avec une indemnisation de 40 livres, mais par précaution, en gardèrent pour 20 livres.
@@ -592,12 +608,14 @@
           <t>Après la Grande Peste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les « Infirmeries » de Marseille restèrent en service jusqu’en 1850. C’était là que les capitaines apportaient leur patente. De 1650 à 1720, ces mesures et leur respect furent efficaces puisqu’il n’y eut pas d'épidémie atteignant les habitants du port. Le 10 juillet 1719 eut lieu la pose de la première pierre du nouveau bâtiment de la consigne sanitaire, à Marseille. Puis un nouveau lazaret fut installé, en 1777, au château Saint-Roch, entre la mer et la route d’Aix. Ces lieux de quarantaine, inclus dans la ville, furent déplacés, en 1775, dans l’ile Pomègue, qui pouvait faire accoster quarante navires de 300 à 400 tonneaux sur deux rangs, puis en 1828, dans l’ile Rateneau, à l'hôpital Caroline.
 Le 21 février 1839, un incident notable émut tous les Marseillais. La corvette américaine Le Cyand renversa sur les quais du Vieux-Port la statue de saint Roch qui ornait la façade du « pavillon sanitaire ». Le saint en perdit la tête et le navire son beaupré.
 Après la « grande peste » de 1720, pour parfaire l’isolement du lazaret marseillais, il fut entouré d’une seconde muraille (1724), située à douze mètres de la première. Une troisième enceinte fut construite en 1825. Résultat, plus de peste en ville, mais une vingtaine de cas qui purent être circonscrits dans l’enceinte du lazaret. Les marchandises suspectes étaient placées en quarantaine dans les « Entrepôts de l’Enclos neuf » (1757). Chacun, d’une dimension de 65 × 35 m, pouvait abriter environ 6 000 balles ou colis.
-À partir de 1723, le mur n'a plus d'utilité sanitaire et on en réutilise les pierres pour d'autres constructions. Depuis 1986, une campagne de restauration et de valorisation est en place par l'intermédiaire de l'association « Pierre sèche en Vaucluse »[3]. On peut voir le mur entre Cabrières-d'Avignon et Lagnes, ainsi qu'à Murs. Aujourd'hui[Quand ?], près de six kilomètres en ont été restaurés[réf. souhaitée].
+À partir de 1723, le mur n'a plus d'utilité sanitaire et on en réutilise les pierres pour d'autres constructions. Depuis 1986, une campagne de restauration et de valorisation est en place par l'intermédiaire de l'association « Pierre sèche en Vaucluse ». On peut voir le mur entre Cabrières-d'Avignon et Lagnes, ainsi qu'à Murs. Aujourd'hui[Quand ?], près de six kilomètres en ont été restaurés[réf. souhaitée].
 </t>
         </is>
       </c>
